--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/17/word_level_predictions_17.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,185 +1149,185 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fly</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Fly</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6690,832 +6690,832 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>Point</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>Initiating</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>2</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>3</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>4</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>5</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Point</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>6</v>
-      </c>
-      <c r="E127" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>trigger</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>12</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Initiating</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>7</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>12</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>8</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>12</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>9</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>12</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>10</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>12</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>11</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>12</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>12</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>12</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>trigger</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>13</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>12</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>14</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>12</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>15</v>
-      </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7990,156 +7990,156 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>13</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>8</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>13</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>9</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" t="n">
         <v>13</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" t="n">
         <v>10</v>
       </c>
-      <c r="E148" s="2" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F148" s="2" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="inlineStr">
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/17/word_level_predictions_17.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,161 +1173,161 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6690,832 +6690,832 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>12</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>12</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>12</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>2</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>12</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>3</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>12</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>4</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>12</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>5</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>12</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>6</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>7</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>12</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>8</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>12</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>9</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>12</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>12</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>12</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>12</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>12</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>12</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>14</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>12</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>15</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" s="2" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7990,156 +7990,156 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>9</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>13</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>10</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="I148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G235" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
